--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -25,10 +25,10 @@
     <t>rajeshwari.bannetti@jai-kisan.com</t>
   </si>
   <si>
-    <t>Rajeshwari</t>
-  </si>
-  <si>
-    <t>pass</t>
+    <t>rajeshwari@123</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>Rajeshari</t>
